--- a/electronics/Reflow_Oven_Derating.xlsx
+++ b/electronics/Reflow_Oven_Derating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S0149128\Documents\reflow_oven\electronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3BD12E-2CA1-49C0-95F1-132BC3E9C4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCE50A5-B9A9-46BB-8F16-26853ED614AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
   <si>
     <t>Reference</t>
   </si>
@@ -693,6 +693,9 @@
   </si>
   <si>
     <t>TC3-1G.pdf</t>
+  </si>
+  <si>
+    <t>OLED_096.pdf</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1213,10 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -1821,6 +1824,9 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
       <c r="F14" s="2" t="str">
         <f>IF(OR(I14="KO",L14="KO",O14="KO",R14="KO"),"KO","OK")</f>
         <v>OK</v>

--- a/electronics/Reflow_Oven_Derating.xlsx
+++ b/electronics/Reflow_Oven_Derating.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S0149128\Documents\reflow_oven\electronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCE50A5-B9A9-46BB-8F16-26853ED614AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4862AF60-1A63-471D-80D8-1AC56523E985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,9 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -42,7 +41,7 @@
     <author>Valentin LEFEBVRE - Contractor</author>
   </authors>
   <commentList>
-    <comment ref="M16" authorId="0" shapeId="0" xr:uid="{BC3F9CF4-7C9A-4AAE-897A-27AD30F9D56C}">
+    <comment ref="M17" authorId="0" shapeId="0" xr:uid="{BC3F9CF4-7C9A-4AAE-897A-27AD30F9D56C}">
       <text>
         <r>
           <rPr>
@@ -66,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="0" shapeId="0" xr:uid="{7B1B3C64-FC5C-41CB-8453-E6745CE1DBBA}">
+    <comment ref="N17" authorId="0" shapeId="0" xr:uid="{7B1B3C64-FC5C-41CB-8453-E6745CE1DBBA}">
       <text>
         <r>
           <rPr>
@@ -90,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M37" authorId="0" shapeId="0" xr:uid="{016712B9-7AB9-4BAC-AB09-5CEB50B550EA}">
+    <comment ref="M38" authorId="0" shapeId="0" xr:uid="{016712B9-7AB9-4BAC-AB09-5CEB50B550EA}">
       <text>
         <r>
           <rPr>
@@ -116,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N37" authorId="0" shapeId="0" xr:uid="{6FED6A82-B002-4298-AC66-72AC7A67D931}">
+    <comment ref="N38" authorId="0" shapeId="0" xr:uid="{6FED6A82-B002-4298-AC66-72AC7A67D931}">
       <text>
         <r>
           <rPr>
@@ -141,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P37" authorId="0" shapeId="0" xr:uid="{2330A081-28DE-4323-ABE8-A4E23DD7C93C}">
+    <comment ref="P38" authorId="0" shapeId="0" xr:uid="{2330A081-28DE-4323-ABE8-A4E23DD7C93C}">
       <text>
         <r>
           <rPr>
@@ -165,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G39" authorId="0" shapeId="0" xr:uid="{98266C3D-04DF-4187-BA73-8AF9FE3DAB17}">
+    <comment ref="G40" authorId="0" shapeId="0" xr:uid="{98266C3D-04DF-4187-BA73-8AF9FE3DAB17}">
       <text>
         <r>
           <rPr>
@@ -191,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M39" authorId="0" shapeId="0" xr:uid="{349EBFEE-9582-4B21-9967-4F38934AB7BD}">
+    <comment ref="M40" authorId="0" shapeId="0" xr:uid="{349EBFEE-9582-4B21-9967-4F38934AB7BD}">
       <text>
         <r>
           <rPr>
@@ -218,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G40" authorId="0" shapeId="0" xr:uid="{9273F8AD-B711-4565-88C2-E9E60C20205D}">
+    <comment ref="G41" authorId="0" shapeId="0" xr:uid="{9273F8AD-B711-4565-88C2-E9E60C20205D}">
       <text>
         <r>
           <rPr>
@@ -242,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G42" authorId="0" shapeId="0" xr:uid="{3F9373ED-2568-4530-ACCD-7DE7FBDEA9FD}">
+    <comment ref="G43" authorId="0" shapeId="0" xr:uid="{3F9373ED-2568-4530-ACCD-7DE7FBDEA9FD}">
       <text>
         <r>
           <rPr>
@@ -276,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="141">
   <si>
     <t>Reference</t>
   </si>
@@ -377,6 +376,9 @@
     <t>C6</t>
   </si>
   <si>
+    <t>C7</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -419,6 +421,21 @@
     <t>Boyd-Board-Level-Heatsinks-Catalog.pdf</t>
   </si>
   <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HEAT_PASTE</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TC3-1G</t>
+  </si>
+  <si>
+    <t>TC3-1G.pdf</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
@@ -437,6 +454,9 @@
     <t>oled display ruizhi 0.96</t>
   </si>
   <si>
+    <t>OLED_096.pdf</t>
+  </si>
+  <si>
     <t>J3</t>
   </si>
   <si>
@@ -455,6 +475,9 @@
     <t>Q1</t>
   </si>
   <si>
+    <t>BTA16-600CW</t>
+  </si>
+  <si>
     <t>Package_TO_SOT_THT:TO-220-3_Vertical</t>
   </si>
   <si>
@@ -608,6 +631,9 @@
     <t>eaton-nrbg-glass-sealed-radial-lead-ntc-thermistor-datasheet-elx1105-en.pdf</t>
   </si>
   <si>
+    <t>U1_emitter</t>
+  </si>
+  <si>
     <t>MOC3063M</t>
   </si>
   <si>
@@ -617,6 +643,9 @@
     <t>MOC3163M-D.pdf</t>
   </si>
   <si>
+    <t>U1_detector</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
@@ -638,6 +667,9 @@
     <t>STM32C031F6P6</t>
   </si>
   <si>
+    <t>stm32c031f6.pdf</t>
+  </si>
+  <si>
     <t>U4</t>
   </si>
   <si>
@@ -666,36 +698,6 @@
   </si>
   <si>
     <t>SIOV_Leaded_StandarD.pdf</t>
-  </si>
-  <si>
-    <t>U1_emitter</t>
-  </si>
-  <si>
-    <t>U1_detector</t>
-  </si>
-  <si>
-    <t>stm32c031f6.pdf</t>
-  </si>
-  <si>
-    <t>BTA16-600CW</t>
-  </si>
-  <si>
-    <t>HEAT_PASTE</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>TC3-1G</t>
-  </si>
-  <si>
-    <t>TC3-1G.pdf</t>
-  </si>
-  <si>
-    <t>OLED_096.pdf</t>
   </si>
 </sst>
 </file>
@@ -779,26 +781,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -839,6 +821,26 @@
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -853,39 +855,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B3C7EDB-74A7-486B-BD70-F8830EC29E7B}" name="Tableau1" displayName="Tableau1" ref="A1:R43" totalsRowShown="0">
-  <autoFilter ref="A1:R43" xr:uid="{5B3C7EDB-74A7-486B-BD70-F8830EC29E7B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B3C7EDB-74A7-486B-BD70-F8830EC29E7B}" name="Tableau1" displayName="Tableau1" ref="A1:R44" totalsRowShown="0">
+  <autoFilter ref="A1:R44" xr:uid="{5B3C7EDB-74A7-486B-BD70-F8830EC29E7B}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{C770BCD5-EE2C-451C-A08B-DF6391DC9BDD}" name="Reference"/>
     <tableColumn id="2" xr3:uid="{3CE6D159-4DBD-4FBC-8AE6-386EE2851856}" name="Value"/>
     <tableColumn id="3" xr3:uid="{06E793FA-BA20-4C5E-8F80-C2EF5FE5177B}" name="Footprint"/>
     <tableColumn id="4" xr3:uid="{483A4DA5-837B-4FE9-B43C-BDEC1194BB44}" name="part"/>
     <tableColumn id="22" xr3:uid="{CD0E5CEA-399E-4978-BF1F-556055207F59}" name="datasheet"/>
-    <tableColumn id="5" xr3:uid="{054A5256-12A4-436C-AE80-BCCEB3219EEB}" name="Valid" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{054A5256-12A4-436C-AE80-BCCEB3219EEB}" name="Valid" dataDxfId="12">
       <calculatedColumnFormula>IF(AND(I2="OK",L2="OK",O2="OK",R2="OK"),"OK","KO")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{59B76285-15E2-4307-B6C6-B680E2790456}" name="Current (A)" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{59B76285-15E2-4307-B6C6-B680E2790456}" name="Current (A)" dataDxfId="11">
       <calculatedColumnFormula>(3.3*1.05 - 1.7)/(110*0.99)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3E61A11C-3022-44B5-9EE7-222FEFA539A2}" name="Max Current (A)" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{4ED6F584-5713-4B90-8089-240BD3918657}" name="Current_valid" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{3E61A11C-3022-44B5-9EE7-222FEFA539A2}" name="Max Current (A)" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{4ED6F584-5713-4B90-8089-240BD3918657}" name="Current_valid" dataDxfId="9">
       <calculatedColumnFormula>IF(OR(G2="",H2=""),"KO",IF(G2&lt;(H2*#REF!),"OK","KO"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0875E5A2-0BF2-45DF-965B-23C4487AF6E5}" name="Voltage (V)" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{403D8F8F-738A-41E1-8DA3-03AA720D0759}" name="Max Voltage (V)" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{EB22319B-B1EC-48F3-A9D6-73F4AD8F191F}" name="Voltage_Valid" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{0875E5A2-0BF2-45DF-965B-23C4487AF6E5}" name="Voltage (V)" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{403D8F8F-738A-41E1-8DA3-03AA720D0759}" name="Max Voltage (V)" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{EB22319B-B1EC-48F3-A9D6-73F4AD8F191F}" name="Voltage_Valid" dataDxfId="6">
       <calculatedColumnFormula>IF(OR(J2="",K2=""),"KO",IF(J2&lt;(K2*#REF!),"OK","KO"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{DFF383E3-0C80-4608-8E7A-2BE1BA947933}" name="Power (W)" dataDxfId="7">
+    <tableColumn id="15" xr3:uid="{DFF383E3-0C80-4608-8E7A-2BE1BA947933}" name="Power (W)" dataDxfId="5">
       <calculatedColumnFormula>Tableau1[[#This Row],[Voltage (V)]]*Tableau1[[#This Row],[Current (A)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B68B9119-2FB3-4C9F-A927-1B33E72F3171}" name="Max Power (W)" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{4A834094-ED25-463F-9FFB-1DA66A13294A}" name="Power_valid" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{B68B9119-2FB3-4C9F-A927-1B33E72F3171}" name="Max Power (W)" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{4A834094-ED25-463F-9FFB-1DA66A13294A}" name="Power_valid" dataDxfId="3">
       <calculatedColumnFormula>IF(OR(M2="",N2=""),"KO",IF(M2&lt;(N2*#REF!),"OK","KO"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D8A2F795-1CBE-4C33-AD35-636873CB006C}" name="Temperature" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{078F05B0-9A3F-45E5-A6F2-4360E626F6AF}" name="Max temperature" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{4533E791-CECA-4065-BBF6-6249E73C7FE0}" name="Temp_valid" dataDxfId="2">
+    <tableColumn id="19" xr3:uid="{D8A2F795-1CBE-4C33-AD35-636873CB006C}" name="Temperature" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{078F05B0-9A3F-45E5-A6F2-4360E626F6AF}" name="Max temperature" dataDxfId="1"/>
+    <tableColumn id="21" xr3:uid="{4533E791-CECA-4065-BBF6-6249E73C7FE0}" name="Temp_valid" dataDxfId="0">
       <calculatedColumnFormula>IF(OR(P2="",Q2=""),"KO",IF(P2&lt;(Q2*#REF!),"OK","KO"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1210,35 +1212,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="34.4140625" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1561,7 +1563,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="2">
-        <f t="shared" ref="J7" si="4">3.365</f>
+        <f t="shared" ref="J7:J8" si="4">3.365</f>
         <v>3.3650000000000002</v>
       </c>
       <c r="K7" s="2">
@@ -1590,10 +1592,16 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="str">
         <f>IF(OR(I8="KO",L8="KO",O8="KO",R8="KO"),"KO","OK")</f>
@@ -1602,25 +1610,40 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="J8" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="K8" s="2">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f t="shared" ref="L8" si="5">IF(OR(J8="",K8=""),"KO",IF(J8&lt;K8,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1">
+      <c r="P8" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>125</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f t="shared" ref="R8" si="6">IF(OR(P8="",Q8=""),"KO",IF(P8&lt;Q8,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>IF(OR(I9="KO",L9="KO",O9="KO",R9="KO"),"KO","OK")</f>
@@ -1639,193 +1662,187 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="1:18" ht="29.25" customHeight="1">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="str">
         <f>IF(OR(I10="KO",L10="KO",O10="KO",R10="KO"),"KO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" ht="29.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>IF(OR(I11="KO",L11="KO",O11="KO",R11="KO"),"KO","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="G11" s="2">
         <f>(3.365 - 1.7)/(150*0.99)</f>
         <v>1.1212121212121213E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H11" s="2">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I10" s="2" t="str">
-        <f>IF(OR(G10="",H10=""),"KO",IF(G10&lt;H10,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" ref="J10" si="5">3.365</f>
+      <c r="I11" s="2" t="str">
+        <f>IF(OR(G11="",H11=""),"KO",IF(G11&lt;H11,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ref="J11" si="7">3.365</f>
         <v>3.3650000000000002</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K11" s="2">
         <v>5</v>
       </c>
-      <c r="L10" s="2" t="str">
-        <f>IF(OR(J10="",K10=""),"KO",IF(J10&lt;K10,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="L11" s="2" t="str">
+        <f>IF(OR(J11="",K11=""),"KO",IF(J11&lt;K11,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="M11" s="2">
         <f>Tableau1[[#This Row],[Voltage (V)]]*Tableau1[[#This Row],[Current (A)]]</f>
         <v>3.7728787878787882E-2</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N11" s="2">
         <v>0.06</v>
       </c>
-      <c r="O10" s="2" t="str">
-        <f>IF(OR(M10="",N10=""),"KO",IF(M10&lt;N10,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="O11" s="2" t="str">
+        <f>IF(OR(M11="",N11=""),"KO",IF(M11&lt;N11,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="P11" s="2">
         <v>50</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q11" s="2">
         <v>85</v>
       </c>
-      <c r="R10" s="2" t="str">
-        <f>IF(OR(P10="",Q10=""),"KO",IF(P10&lt;Q10,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f>IF(OR(I11="KO",L11="KO",O11="KO",R11="KO"),"KO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="2">
-        <f>50+50</f>
-        <v>100</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>150</v>
-      </c>
       <c r="R11" s="2" t="str">
-        <f t="shared" ref="R11:R12" si="6">IF(OR(P11="",Q11=""),"KO",IF(P11&lt;Q11,"OK","KO"))</f>
+        <f>IF(OR(P11="",Q11=""),"KO",IF(P11&lt;Q11,"OK","KO"))</f>
         <v>OK</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="str">
         <f>IF(OR(I12="KO",L12="KO",O12="KO",R12="KO"),"KO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="2">
+        <f>50+50</f>
         <v>100</v>
       </c>
       <c r="Q12" s="2">
         <v>150</v>
       </c>
       <c r="R12" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="R12:R13" si="8">IF(OR(P12="",Q12=""),"KO",IF(P12&lt;Q12,"OK","KO"))</f>
         <v>OK</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="str">
         <f>IF(OR(I13="KO",L13="KO",O13="KO",R13="KO"),"KO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="P13" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>150</v>
+      </c>
+      <c r="R13" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2" t="str">
         <f>IF(OR(I14="KO",L14="KO",O14="KO",R14="KO"),"KO","OK")</f>
@@ -1834,71 +1851,48 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="2">
-        <f t="shared" ref="J14" si="7">3.365</f>
-        <v>3.3650000000000002</v>
-      </c>
-      <c r="K14" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="L14" s="2" t="str">
-        <f>IF(OR(J14="",K14=""),"KO",IF(J14&lt;K14,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>80</v>
-      </c>
-      <c r="R14" s="2" t="str">
-        <f>IF(OR(P14="",Q14=""),"KO",IF(P14&lt;Q14,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F15" s="2" t="str">
         <f>IF(OR(I15="KO",L15="KO",O15="KO",R15="KO"),"KO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="G15" s="2">
-        <f>0.8 + 5*1.05/(5100*0.99) + 5*1.05/(5100*0.99)</f>
-        <v>0.80207961972667863</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f t="shared" ref="I15:I16" si="8">IF(OR(G15="",H15=""),"KO",IF(G15&lt;H15,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="2">
-        <f>5*1.05</f>
-        <v>5.25</v>
+        <f t="shared" ref="J15" si="9">3.365</f>
+        <v>3.3650000000000002</v>
       </c>
       <c r="K15" s="2">
-        <v>48</v>
+        <v>5.2</v>
       </c>
       <c r="L15" s="2" t="str">
-        <f t="shared" ref="L15:L28" si="9">IF(OR(J15="",K15=""),"KO",IF(J15&lt;K15,"OK","KO"))</f>
+        <f>IF(OR(J15="",K15=""),"KO",IF(J15&lt;K15,"OK","KO"))</f>
         <v>OK</v>
       </c>
       <c r="M15" s="4"/>
@@ -1908,147 +1902,148 @@
         <v>50</v>
       </c>
       <c r="Q15" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R15" s="2" t="str">
-        <f t="shared" ref="R15:R28" si="10">IF(OR(P15="",Q15=""),"KO",IF(P15&lt;Q15,"OK","KO"))</f>
+        <f>IF(OR(P15="",Q15=""),"KO",IF(P15&lt;Q15,"OK","KO"))</f>
         <v>OK</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F16" s="2" t="str">
         <f>IF(OR(I16="KO",L16="KO",O16="KO",R16="KO"),"KO","OK")</f>
         <v>OK</v>
       </c>
       <c r="G16" s="2">
+        <f>0.8 + 5*1.05/(5100*0.99) + 5*1.05/(5100*0.99)</f>
+        <v>0.80207961972667863</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" ref="I16:I17" si="10">IF(OR(G16="",H16=""),"KO",IF(G16&lt;H16,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="J16" s="2">
+        <f>5*1.05</f>
+        <v>5.25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>48</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f t="shared" ref="L16:L29" si="11">IF(OR(J16="",K16=""),"KO",IF(J16&lt;K16,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>85</v>
+      </c>
+      <c r="R16" s="2" t="str">
+        <f t="shared" ref="R16:R29" si="12">IF(OR(P16="",Q16=""),"KO",IF(P16&lt;Q16,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f>IF(OR(I17="KO",L17="KO",O17="KO",R17="KO"),"KO","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="G17" s="2">
         <v>12</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H17" s="2">
         <v>16</v>
       </c>
-      <c r="I16" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>OK</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>OK</v>
+      </c>
+      <c r="J17" s="2">
         <f>230*SQRT(2)</f>
         <v>325.26911934581187</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K17" s="2">
         <v>600</v>
       </c>
-      <c r="L16" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>OK</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+      <c r="M17" s="2">
         <v>13</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N17" s="2">
         <f>(125-50)/(2.1+0.5+2.6)</f>
         <v>14.423076923076923</v>
       </c>
-      <c r="O16" s="2" t="str">
-        <f>IF(OR(M16="",N16=""),"KO",IF(M16&lt;N16,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-      <c r="P16" s="2">
+      <c r="O17" s="2" t="str">
+        <f>IF(OR(M17="",N17=""),"KO",IF(M17&lt;N17,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="P17" s="2">
         <f>50+Tableau1[[#This Row],[Power (W)]]*(2.1+0.5+2.6)</f>
         <v>117.60000000000001</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q17" s="2">
         <v>125</v>
       </c>
-      <c r="R16" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f>IF(OR(I17="KO",L17="KO",O17="KO",R17="KO"),"KO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="2">
-        <v>230</v>
-      </c>
-      <c r="K17" s="2">
-        <v>300</v>
-      </c>
-      <c r="L17" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>OK</v>
-      </c>
-      <c r="M17" s="2">
-        <f>(((1100*1.01)/3)*0.05)^2/(1100*1.01)</f>
-        <v>0.30861111111111106</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="O17" s="2" t="str">
-        <f t="shared" ref="O17:O28" si="11">IF(OR(M17="",N17=""),"KO",IF(M17&lt;N17,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-      <c r="P17" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>70</v>
-      </c>
       <c r="R17" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F18" s="2" t="str">
         <f>IF(OR(I18="KO",L18="KO",O18="KO",R18="KO"),"KO","OK")</f>
@@ -2064,7 +2059,7 @@
         <v>300</v>
       </c>
       <c r="L18" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="M18" s="2">
@@ -2075,7 +2070,7 @@
         <v>0.5</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="O18:O29" si="13">IF(OR(M18="",N18=""),"KO",IF(M18&lt;N18,"OK","KO"))</f>
         <v>OK</v>
       </c>
       <c r="P18" s="2">
@@ -2085,25 +2080,25 @@
         <v>70</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2" t="str">
         <f>IF(OR(I19="KO",L19="KO",O19="KO",R19="KO"),"KO","OK")</f>
@@ -2119,7 +2114,7 @@
         <v>300</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="M19" s="2">
@@ -2130,7 +2125,7 @@
         <v>0.5</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="P19" s="2">
@@ -2140,25 +2135,25 @@
         <v>70</v>
       </c>
       <c r="R19" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20" s="2" t="str">
         <f>IF(OR(I20="KO",L20="KO",O20="KO",R20="KO"),"KO","OK")</f>
@@ -2168,53 +2163,52 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="2">
-        <f>3.365</f>
-        <v>3.3650000000000002</v>
+        <v>230</v>
       </c>
       <c r="K20" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L20" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="M20" s="2">
-        <f>Tableau1[[#This Row],[Voltage (V)]]^2/(1800*0.999)</f>
-        <v>6.2969775330886449E-3</v>
+        <f>(((1100*1.01)/3)*0.05)^2/(1100*1.01)</f>
+        <v>0.30861111111111106</v>
       </c>
       <c r="N20" s="2">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="P20" s="2">
         <v>50</v>
       </c>
       <c r="Q20" s="2">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="R20" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F21" s="2" t="str">
         <f>IF(OR(I21="KO",L21="KO",O21="KO",R21="KO"),"KO","OK")</f>
@@ -2224,53 +2218,53 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="2">
-        <f t="shared" ref="J21:J26" si="12">3.365</f>
+        <f>3.365</f>
         <v>3.3650000000000002</v>
       </c>
       <c r="K21" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L21" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="M21" s="2">
-        <f>Tableau1[[#This Row],[Voltage (V)]]^2/(150*0.99)</f>
-        <v>7.6250673400673402E-2</v>
+        <f>Tableau1[[#This Row],[Voltage (V)]]^2/(1800*0.999)</f>
+        <v>6.2969775330886449E-3</v>
       </c>
       <c r="N21" s="2">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="P21" s="2">
         <v>50</v>
       </c>
       <c r="Q21" s="2">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="R21" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F22" s="2" t="str">
         <f>IF(OR(I22="KO",L22="KO",O22="KO",R22="KO"),"KO","OK")</f>
@@ -2280,14 +2274,14 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J22:J27" si="14">3.365</f>
         <v>3.3650000000000002</v>
       </c>
       <c r="K22" s="2">
         <v>150</v>
       </c>
       <c r="L22" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="M22" s="2">
@@ -2298,7 +2292,7 @@
         <v>0.25</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="P22" s="2">
@@ -2308,25 +2302,25 @@
         <v>70</v>
       </c>
       <c r="R22" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2" t="str">
         <f>IF(OR(I23="KO",L23="KO",O23="KO",R23="KO"),"KO","OK")</f>
@@ -2336,14 +2330,14 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.3650000000000002</v>
       </c>
       <c r="K23" s="2">
         <v>150</v>
       </c>
       <c r="L23" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="M23" s="2">
@@ -2354,7 +2348,7 @@
         <v>0.25</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="P23" s="2">
@@ -2364,25 +2358,25 @@
         <v>70</v>
       </c>
       <c r="R23" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F24" s="2" t="str">
         <f>IF(OR(I24="KO",L24="KO",O24="KO",R24="KO"),"KO","OK")</f>
@@ -2392,14 +2386,14 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.3650000000000002</v>
       </c>
       <c r="K24" s="2">
         <v>150</v>
       </c>
       <c r="L24" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="M24" s="2">
@@ -2410,7 +2404,7 @@
         <v>0.25</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="P24" s="2">
@@ -2420,25 +2414,25 @@
         <v>70</v>
       </c>
       <c r="R24" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2" t="str">
         <f>IF(OR(I25="KO",L25="KO",O25="KO",R25="KO"),"KO","OK")</f>
@@ -2448,25 +2442,25 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.3650000000000002</v>
       </c>
       <c r="K25" s="2">
         <v>150</v>
       </c>
       <c r="L25" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="M25" s="2">
-        <f>Tableau1[[#This Row],[Voltage (V)]]^2/(10000*0.99)</f>
-        <v>1.1437601010101011E-3</v>
+        <f>Tableau1[[#This Row],[Voltage (V)]]^2/(150*0.99)</f>
+        <v>7.6250673400673402E-2</v>
       </c>
       <c r="N25" s="2">
         <v>0.25</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="P25" s="2">
@@ -2476,25 +2470,25 @@
         <v>70</v>
       </c>
       <c r="R25" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F26" s="2" t="str">
         <f>IF(OR(I26="KO",L26="KO",O26="KO",R26="KO"),"KO","OK")</f>
@@ -2504,14 +2498,14 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.3650000000000002</v>
       </c>
       <c r="K26" s="2">
         <v>150</v>
       </c>
       <c r="L26" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="M26" s="2">
@@ -2522,7 +2516,7 @@
         <v>0.25</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="P26" s="2">
@@ -2532,25 +2526,25 @@
         <v>70</v>
       </c>
       <c r="R26" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
         <v>85</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>77</v>
       </c>
       <c r="F27" s="2" t="str">
         <f>IF(OR(I27="KO",L27="KO",O27="KO",R27="KO"),"KO","OK")</f>
@@ -2560,25 +2554,25 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="2">
-        <f>5*1.05</f>
-        <v>5.25</v>
+        <f t="shared" si="14"/>
+        <v>3.3650000000000002</v>
       </c>
       <c r="K27" s="2">
         <v>150</v>
       </c>
       <c r="L27" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="M27" s="2">
-        <f>Tableau1[[#This Row],[Voltage (V)]]^2/(5100*0.99)</f>
-        <v>5.4590017825311941E-3</v>
+        <f>Tableau1[[#This Row],[Voltage (V)]]^2/(10000*0.99)</f>
+        <v>1.1437601010101011E-3</v>
       </c>
       <c r="N27" s="2">
         <v>0.25</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="P27" s="2">
@@ -2588,25 +2582,25 @@
         <v>70</v>
       </c>
       <c r="R27" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F28" s="2" t="str">
         <f>IF(OR(I28="KO",L28="KO",O28="KO",R28="KO"),"KO","OK")</f>
@@ -2623,7 +2617,7 @@
         <v>150</v>
       </c>
       <c r="L28" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>OK</v>
       </c>
       <c r="M28" s="2">
@@ -2634,7 +2628,7 @@
         <v>0.25</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>OK</v>
       </c>
       <c r="P28" s="2">
@@ -2644,19 +2638,25 @@
         <v>70</v>
       </c>
       <c r="R28" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>OK</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
       </c>
       <c r="F29" s="2" t="str">
         <f>IF(OR(I29="KO",L29="KO",O29="KO",R29="KO"),"KO","OK")</f>
@@ -2665,25 +2665,48 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="J29" s="2">
+        <f>5*1.05</f>
+        <v>5.25</v>
+      </c>
+      <c r="K29" s="2">
+        <v>150</v>
+      </c>
+      <c r="L29" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>OK</v>
+      </c>
+      <c r="M29" s="2">
+        <f>Tableau1[[#This Row],[Voltage (V)]]^2/(5100*0.99)</f>
+        <v>5.4590017825311941E-3</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>OK</v>
+      </c>
+      <c r="P29" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>70</v>
+      </c>
+      <c r="R29" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>OK</v>
+      </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F30" s="2" t="str">
         <f>IF(OR(I30="KO",L30="KO",O30="KO",R30="KO"),"KO","OK")</f>
@@ -2704,13 +2727,13 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F31" s="2" t="str">
         <f>IF(OR(I31="KO",L31="KO",O31="KO",R31="KO"),"KO","OK")</f>
@@ -2731,13 +2754,13 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F32" s="2" t="str">
         <f>IF(OR(I32="KO",L32="KO",O32="KO",R32="KO"),"KO","OK")</f>
@@ -2758,13 +2781,13 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" t="s">
-        <v>90</v>
       </c>
       <c r="F33" s="2" t="str">
         <f>IF(OR(I33="KO",L33="KO",O33="KO",R33="KO"),"KO","OK")</f>
@@ -2785,13 +2808,13 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F34" s="2" t="str">
         <f>IF(OR(I34="KO",L34="KO",O34="KO",R34="KO"),"KO","OK")</f>
@@ -2812,13 +2835,13 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F35" s="2" t="str">
         <f>IF(OR(I35="KO",L35="KO",O35="KO",R35="KO"),"KO","OK")</f>
@@ -2839,13 +2862,13 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F36" s="2" t="str">
         <f>IF(OR(I36="KO",L36="KO",O36="KO",R36="KO"),"KO","OK")</f>
@@ -2864,21 +2887,15 @@
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="1:18" ht="28.5" customHeight="1">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F37" s="2" t="str">
         <f>IF(OR(I37="KO",L37="KO",O37="KO",R37="KO"),"KO","OK")</f>
@@ -2887,240 +2904,220 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="2">
-        <f>3.365</f>
-        <v>3.3650000000000002</v>
-      </c>
-      <c r="K37" s="2">
-        <v>50</v>
-      </c>
-      <c r="L37" s="2" t="str">
-        <f>IF(OR(J37="",K37=""),"KO",IF(J37&lt;K37,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-      <c r="M37" s="2">
-        <f>MAX(((3.365*(3208000/(3208000+1800*0.999)))^2/3208000),((3.365*(72/(72+1800*0.999)))^2/72))</f>
-        <v>2.3309154914283488E-4</v>
-      </c>
-      <c r="N37" s="2">
-        <f>0.0008*(300-260)</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="O37" s="2" t="str">
-        <f>IF(OR(M37="",N37=""),"KO",IF(M37&lt;N37,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-      <c r="P37" s="2">
-        <v>260</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>300</v>
-      </c>
-      <c r="R37" s="2" t="str">
-        <f>IF(OR(P37="",Q37=""),"KO",IF(P37&lt;Q37,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" ht="28.5" customHeight="1">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="F38" s="2" t="str">
         <f>IF(OR(I38="KO",L38="KO",O38="KO",R38="KO"),"KO","OK")</f>
         <v>OK</v>
       </c>
-      <c r="G38" s="2">
-        <f>(3.365-0.7)/(150*0.99)</f>
-        <v>1.7946127946127946E-2</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="I38" s="2" t="str">
-        <f>IF(OR(G38="",H38=""),"KO",IF(G38&lt;H38,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
       <c r="J38" s="2">
         <f>3.365</f>
         <v>3.3650000000000002</v>
       </c>
       <c r="K38" s="2">
+        <v>50</v>
+      </c>
+      <c r="L38" s="2" t="str">
+        <f>IF(OR(J38="",K38=""),"KO",IF(J38&lt;K38,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="M38" s="2">
+        <f>MAX(((3.365*(3208000/(3208000+1800*0.999)))^2/3208000),((3.365*(72/(72+1800*0.999)))^2/72))</f>
+        <v>2.3309154914283488E-4</v>
+      </c>
+      <c r="N38" s="2">
+        <f>0.0008*(300-260)</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O38" s="2" t="str">
+        <f>IF(OR(M38="",N38=""),"KO",IF(M38&lt;N38,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="P38" s="2">
+        <v>260</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>300</v>
+      </c>
+      <c r="R38" s="2" t="str">
+        <f>IF(OR(P38="",Q38=""),"KO",IF(P38&lt;Q38,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f>IF(OR(I39="KO",L39="KO",O39="KO",R39="KO"),"KO","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="G39" s="2">
+        <f>(3.365-0.7)/(150*0.99)</f>
+        <v>1.7946127946127946E-2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f>IF(OR(G39="",H39=""),"KO",IF(G39&lt;H39,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="J39" s="2">
+        <f>3.365</f>
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="K39" s="2">
         <v>6</v>
       </c>
-      <c r="L38" s="2" t="str">
-        <f t="shared" ref="L38:L43" si="13">IF(OR(J38="",K38=""),"KO",IF(J38&lt;K38,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="L39" s="2" t="str">
+        <f t="shared" ref="L39:L44" si="15">IF(OR(J39="",K39=""),"KO",IF(J39&lt;K39,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="M39" s="2">
         <f>(Tableau1[[#This Row],[Voltage (V)]]-0.7)/(150*0.99)</f>
         <v>1.7946127946127946E-2</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N39" s="2">
         <f>(85-50)*0.00141</f>
         <v>4.9349999999999998E-2</v>
       </c>
-      <c r="O38" s="2" t="str">
-        <f t="shared" ref="O38:O39" si="14">IF(OR(M38="",N38=""),"KO",IF(M38&lt;N38,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-      <c r="P38" s="2">
+      <c r="O39" s="2" t="str">
+        <f t="shared" ref="O39:O40" si="16">IF(OR(M39="",N39=""),"KO",IF(M39&lt;N39,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="P39" s="2">
         <f>50+Tableau1[[#This Row],[Power (W)]]/0.00141</f>
         <v>62.727750316402798</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q39" s="2">
         <v>100</v>
       </c>
-      <c r="R38" s="2" t="str">
-        <f t="shared" ref="R38:R43" si="15">IF(OR(P38="",Q38=""),"KO",IF(P38&lt;Q38,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="2" t="str">
-        <f>IF(AND(I39="OK",L39="OK",O39="OK",R39="OK"),"OK","KO")</f>
-        <v>OK</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="R39" s="2" t="str">
+        <f t="shared" ref="R39:R44" si="17">IF(OR(P39="",Q39=""),"KO",IF(P39&lt;Q39,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f>IF(AND(I40="OK",L40="OK",O40="OK",R40="OK"),"OK","KO")</f>
+        <v>OK</v>
+      </c>
+      <c r="G40" s="3">
         <f>230*SQRT(2)/((1100*0.99)/3)</f>
         <v>0.89605818001601067</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H40" s="2">
         <v>1</v>
       </c>
-      <c r="I39" s="2" t="str">
-        <f t="shared" ref="I39:I43" si="16">IF(OR(G39="",H39=""),"KO",IF(G39&lt;H39,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-      <c r="J39" s="2">
+      <c r="I40" s="2" t="str">
+        <f t="shared" ref="I40:I44" si="18">IF(OR(G40="",H40=""),"KO",IF(G40&lt;H40,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="J40" s="2">
         <f>230*SQRT(2)</f>
         <v>325.26911934581187</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K40" s="2">
         <v>600</v>
       </c>
-      <c r="L39" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>OK</v>
-      </c>
-      <c r="M39" s="3">
+      <c r="L40" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+      <c r="M40" s="3">
         <f>1.8*0.025</f>
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N40" s="2">
         <f>(85-50)*0.00176</f>
         <v>6.1600000000000002E-2</v>
       </c>
-      <c r="O39" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>OK</v>
-      </c>
-      <c r="P39" s="2">
+      <c r="O40" s="2" t="str">
+        <f t="shared" si="16"/>
+        <v>OK</v>
+      </c>
+      <c r="P40" s="2">
         <f>50+Tableau1[[#This Row],[Power (W)]]/0.00176</f>
         <v>75.568181818181813</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q40" s="2">
         <v>100</v>
       </c>
-      <c r="R39" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="2" t="str">
-        <f>IF(OR(I40="KO",L40="KO",O40="KO",R40="KO"),"KO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="G40" s="2">
-        <f>3*(3.365/(150*0.99))</f>
-        <v>6.7979797979797987E-2</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="I40" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>OK</v>
-      </c>
-      <c r="J40" s="2">
-        <f>3.365</f>
-        <v>3.3650000000000002</v>
-      </c>
-      <c r="K40" s="2">
-        <v>4</v>
-      </c>
-      <c r="L40" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>OK</v>
-      </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="2">
-        <v>50</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>85</v>
-      </c>
       <c r="R40" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>OK</v>
       </c>
     </row>
     <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F41" s="2" t="str">
         <f>IF(OR(I41="KO",L41="KO",O41="KO",R41="KO"),"KO","OK")</f>
@@ -3134,7 +3131,7 @@
         <v>0.1</v>
       </c>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>OK</v>
       </c>
       <c r="J41" s="2">
@@ -3145,7 +3142,7 @@
         <v>4</v>
       </c>
       <c r="L41" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>OK</v>
       </c>
       <c r="M41" s="4"/>
@@ -3158,131 +3155,184 @@
         <v>85</v>
       </c>
       <c r="R41" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>OK</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" t="s">
-        <v>120</v>
-      </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F42" s="2" t="str">
         <f>IF(OR(I42="KO",L42="KO",O42="KO",R42="KO"),"KO","OK")</f>
         <v>OK</v>
       </c>
       <c r="G42" s="2">
+        <f>3*(3.365/(150*0.99))</f>
+        <v>6.7979797979797987E-2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="J42" s="2">
+        <f>3.365</f>
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="K42" s="2">
+        <v>4</v>
+      </c>
+      <c r="L42" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>85</v>
+      </c>
+      <c r="R42" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f>IF(OR(I43="KO",L43="KO",O43="KO",R43="KO"),"KO","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="G43" s="2">
         <f>0.1+3.365/(10000*0.99)+3.365/(10000*0.99)+3.365/(1800*0.999+72*0.999)+0.03+3.365/(150*0.99)</f>
         <v>0.15513907271685051</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H43" s="2">
         <v>0.8</v>
       </c>
-      <c r="I42" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>OK</v>
-      </c>
-      <c r="J42" s="2">
+      <c r="I43" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="J43" s="2">
         <f>5*1.05</f>
         <v>5.25</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K43" s="2">
         <v>15</v>
       </c>
-      <c r="L42" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>OK</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="L43" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>OK</v>
+      </c>
+      <c r="M43" s="2">
         <f>(Tableau1[[#This Row],[Voltage (V)]]-3.235)*Tableau1[[#This Row],[Current (A)]]</f>
         <v>0.3126052315244538</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N43" s="2">
         <v>12</v>
       </c>
-      <c r="O42" s="2" t="str">
-        <f>IF(OR(M42="",N42=""),"KO",IF(M42&lt;N42,"OK","KO"))</f>
-        <v>OK</v>
-      </c>
-      <c r="P42" s="2">
+      <c r="O43" s="2" t="str">
+        <f>IF(OR(M43="",N43=""),"KO",IF(M43&lt;N43,"OK","KO"))</f>
+        <v>OK</v>
+      </c>
+      <c r="P43" s="2">
         <f>50 + 110*Tableau1[[#This Row],[Power (W)]]</f>
         <v>84.386575467689909</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q43" s="2">
         <v>125</v>
       </c>
-      <c r="R42" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="2" t="str">
-        <f>IF(OR(I43="KO",L43="KO",O43="KO",R43="KO"),"KO","OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="G43" s="2">
+      <c r="R43" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f>IF(OR(I44="KO",L44="KO",O44="KO",R44="KO"),"KO","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="G44" s="2">
         <v>12</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H44" s="2">
         <v>3000</v>
       </c>
-      <c r="I43" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>OK</v>
-      </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="2">
+      <c r="I44" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>OK</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="2">
         <v>50</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q44" s="2">
         <v>105</v>
       </c>
-      <c r="R43" s="2" t="str">
-        <f t="shared" si="15"/>
+      <c r="R44" s="2" t="str">
+        <f t="shared" si="17"/>
         <v>OK</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F2:R43">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="KO">
+  <conditionalFormatting sqref="F2:R44">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="KO">
       <formula>NOT(ISERROR(SEARCH("KO",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:R43">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="OK">
+  <conditionalFormatting sqref="F2:R44">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
